--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/88.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/88.xlsx
@@ -479,13 +479,13 @@
         <v>-6.139829968485864</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.424176885547729</v>
+        <v>-9.432229079857539</v>
       </c>
       <c r="F2" t="n">
-        <v>2.545979525283225</v>
+        <v>2.532666759584616</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.79591940149499</v>
+        <v>-14.78579915728048</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.793779856906336</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.98010096737776</v>
+        <v>-9.988334054941646</v>
       </c>
       <c r="F3" t="n">
-        <v>2.639325333393232</v>
+        <v>2.625577446083467</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.50561506274445</v>
+        <v>-14.4954997075368</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.428684208587608</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.06684172721057</v>
+        <v>-10.07544637929634</v>
       </c>
       <c r="F4" t="n">
-        <v>2.549572945330408</v>
+        <v>2.53491081373653</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.90462900462206</v>
+        <v>-13.89503188414231</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.074649096952452</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.68740825783495</v>
+        <v>-10.69414530929756</v>
       </c>
       <c r="F5" t="n">
-        <v>2.849933971206195</v>
+        <v>2.835291395639784</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.38040524331711</v>
+        <v>-13.3716441430116</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.723117708564709</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.22038334143168</v>
+        <v>-11.22711061488056</v>
       </c>
       <c r="F6" t="n">
-        <v>2.829854820003775</v>
+        <v>2.816009152556672</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.10536927301194</v>
+        <v>-13.09726818863346</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.380695165903286</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.17986560608434</v>
+        <v>-12.18744356672806</v>
       </c>
       <c r="F7" t="n">
-        <v>2.930094127796132</v>
+        <v>2.9156764465456</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.62839287406885</v>
+        <v>-12.62063890917792</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.04399901170065</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.9581514982354</v>
+        <v>-12.96398408342763</v>
       </c>
       <c r="F8" t="n">
-        <v>3.146510905766989</v>
+        <v>3.131702103967104</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.2151006785742</v>
+        <v>-12.20776227926696</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.71983962282132</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.67645416513628</v>
+        <v>-13.68256542371992</v>
       </c>
       <c r="F9" t="n">
-        <v>3.300367951868802</v>
+        <v>3.285632485171921</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.15465299767166</v>
+        <v>-12.14624879486743</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.403501865291517</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.6635299845458</v>
+        <v>-14.66931856867623</v>
       </c>
       <c r="F10" t="n">
-        <v>3.623154852243128</v>
+        <v>3.607910928832087</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.67427873895606</v>
+        <v>-11.6691159477046</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.096622648739428</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.37914369766988</v>
+        <v>-15.38489316974537</v>
       </c>
       <c r="F11" t="n">
-        <v>3.696900631823673</v>
+        <v>3.68115314070534</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.08834593297691</v>
+        <v>-11.08286046727223</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.799141556510573</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.52837320783437</v>
+        <v>-16.53346266398283</v>
       </c>
       <c r="F12" t="n">
-        <v>3.97908433016827</v>
+        <v>3.963444397201009</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.62435962527921</v>
+        <v>-10.61813103053076</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.508214047938545</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.40067470203621</v>
+        <v>-17.40627261489882</v>
       </c>
       <c r="F13" t="n">
-        <v>4.337223639197258</v>
+        <v>4.321842823593943</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.05138757650425</v>
+        <v>-10.04609767107425</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.232527734831967</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.83405818031266</v>
+        <v>-18.83858051166456</v>
       </c>
       <c r="F14" t="n">
-        <v>4.396610405609674</v>
+        <v>4.381425150281036</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.563748253584418</v>
+        <v>-9.558316566955275</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.976694321008361</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.58823637960296</v>
+        <v>-19.59352628503297</v>
       </c>
       <c r="F15" t="n">
-        <v>4.579566820583365</v>
+        <v>4.564269118096788</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.952720175357387</v>
+        <v>-8.948476517396905</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.748826115727359</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.83353487470234</v>
+        <v>-20.83759275040188</v>
       </c>
       <c r="F16" t="n">
-        <v>4.511956744620798</v>
+        <v>4.498062187105026</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.726945838243255</v>
+        <v>-8.722022608328272</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.555499234066548</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.16533456829804</v>
+        <v>-22.16937288797011</v>
       </c>
       <c r="F17" t="n">
-        <v>4.897391378987772</v>
+        <v>4.883311039211057</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.428559971141702</v>
+        <v>-8.424462983387226</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.393253481023006</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.05340799865254</v>
+        <v>-23.05848767678726</v>
       </c>
       <c r="F18" t="n">
-        <v>4.999610734561229</v>
+        <v>4.985545061805115</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.954316527037218</v>
+        <v>-7.952468482441524</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.259257832584517</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.0923757369475</v>
+        <v>-24.09891233912856</v>
       </c>
       <c r="F19" t="n">
-        <v>5.142066616649397</v>
+        <v>5.128802741019457</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.349336150304562</v>
+        <v>-7.348729913453064</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.14322104896143</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.00896674435672</v>
+        <v>-25.01580646496353</v>
       </c>
       <c r="F20" t="n">
-        <v>5.378723883049283</v>
+        <v>5.366159135401311</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.920941812598006</v>
+        <v>-6.922188509349069</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.033642265139304</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.82425264047658</v>
+        <v>-25.8318012670791</v>
       </c>
       <c r="F21" t="n">
-        <v>5.475819559426213</v>
+        <v>5.464618844694111</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.346283056453956</v>
+        <v>-6.349157792491702</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.9219773951850612</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.40993121809866</v>
+        <v>-26.4185847602531</v>
       </c>
       <c r="F22" t="n">
-        <v>5.485103783466484</v>
+        <v>5.473717286473439</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.101373146462719</v>
+        <v>-6.105387021100456</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.799082044963364</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.06748308567125</v>
+        <v>-27.07508304684587</v>
       </c>
       <c r="F23" t="n">
-        <v>5.452538108725964</v>
+        <v>5.442280972319177</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.643796326767548</v>
+        <v>-5.650205814770073</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.663824982156042</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.44020630218425</v>
+        <v>-27.44877673122195</v>
       </c>
       <c r="F24" t="n">
-        <v>5.609460562133333</v>
+        <v>5.598910085314531</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.376132978817688</v>
+        <v>-5.383026478500039</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.5198448990069434</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.69633403843162</v>
+        <v>-27.70471379620151</v>
       </c>
       <c r="F25" t="n">
-        <v>5.328132439990446</v>
+        <v>5.317376624883233</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.942341177530059</v>
+        <v>-4.949493794576355</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.3743384519196771</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.77311344677309</v>
+        <v>-27.78156165063912</v>
       </c>
       <c r="F26" t="n">
-        <v>5.530380876060984</v>
+        <v>5.522079342400962</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.618366248487073</v>
+        <v>-4.626491777899886</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.2396235246923528</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.00440747263997</v>
+        <v>-28.01331035414462</v>
       </c>
       <c r="F27" t="n">
-        <v>5.454420376369726</v>
+        <v>5.445952616476229</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.440768185039521</v>
+        <v>-4.449568397399967</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.1284651121986504</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.7936888321725</v>
+        <v>-27.80265527076642</v>
       </c>
       <c r="F28" t="n">
-        <v>5.395986966296359</v>
+        <v>5.388927240380534</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.205171833129756</v>
+        <v>-4.213175137370896</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.05337621898594162</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.85142555876733</v>
+        <v>-27.86092245460631</v>
       </c>
       <c r="F29" t="n">
-        <v>5.37360998186649</v>
+        <v>5.366721371191006</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.739009917376283</v>
+        <v>-3.748064358093809</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.02790070603484344</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.55786758594686</v>
+        <v>-27.56741826086138</v>
       </c>
       <c r="F30" t="n">
-        <v>5.351193885381684</v>
+        <v>5.343606146724232</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.909000686138915</v>
+        <v>-3.916906210242717</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.06391091750385156</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.4688216593763</v>
+        <v>-27.47907390677622</v>
       </c>
       <c r="F31" t="n">
-        <v>5.478254284845937</v>
+        <v>5.469551852622828</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.161224550403057</v>
+        <v>-4.167609593371249</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.1685308759826913</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.01447402871673</v>
+        <v>-27.02418848536129</v>
       </c>
       <c r="F32" t="n">
-        <v>5.475834226446814</v>
+        <v>5.467498469738723</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.034291265117345</v>
+        <v>-4.040671419078668</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.3487085409231789</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.63425596467675</v>
+        <v>-26.64349374315179</v>
       </c>
       <c r="F33" t="n">
-        <v>5.231066097654717</v>
+        <v>5.222207217211867</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.902102297449698</v>
+        <v>-3.907998439731198</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.6033563218757509</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.28880118396398</v>
+        <v>-26.29799740588064</v>
       </c>
       <c r="F34" t="n">
-        <v>5.365435562385008</v>
+        <v>5.355476655397101</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.812716584901892</v>
+        <v>-3.81798204529756</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.9273832211230775</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.07957613509435</v>
+        <v>-26.08764788543163</v>
       </c>
       <c r="F35" t="n">
-        <v>5.512663115175284</v>
+        <v>5.502303309624291</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.146107741170557</v>
+        <v>-4.150287842041768</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.3136497900107</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.40353404355109</v>
+        <v>-25.41255426122054</v>
       </c>
       <c r="F36" t="n">
-        <v>5.587416030170414</v>
+        <v>5.576611324994531</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.309449460594185</v>
+        <v>-4.312661538105748</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.744906998698931</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.82441651314441</v>
+        <v>-24.8334465088276</v>
       </c>
       <c r="F37" t="n">
-        <v>5.587401363149813</v>
+        <v>5.576591768967064</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.446576325197415</v>
+        <v>-4.449240833939884</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.207165395874969</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.27778154436152</v>
+        <v>-24.28642530850222</v>
       </c>
       <c r="F38" t="n">
-        <v>5.412399362348593</v>
+        <v>5.401648436248246</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.390592307564372</v>
+        <v>-4.392034564590112</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.68029785415851</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.73165992129965</v>
+        <v>-23.73990278687727</v>
       </c>
       <c r="F39" t="n">
-        <v>5.375658475743727</v>
+        <v>5.364975995739518</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.590855806846942</v>
+        <v>-4.592430067058089</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.141388588055179</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.10291897119378</v>
+        <v>-23.11152851228642</v>
       </c>
       <c r="F40" t="n">
-        <v>5.446260623908845</v>
+        <v>5.43579326020678</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.370610936499291</v>
+        <v>-4.371080281158514</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.573254085384712</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.5261970541519</v>
+        <v>-22.53452303284625</v>
       </c>
       <c r="F41" t="n">
-        <v>5.556449060675375</v>
+        <v>5.545316792039409</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.728085340594378</v>
+        <v>-4.727053760145459</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.955268049587738</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.92764572144923</v>
+        <v>-21.93529701719596</v>
       </c>
       <c r="F42" t="n">
-        <v>5.501501512498117</v>
+        <v>5.490291019752282</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.673392020774201</v>
+        <v>-4.671881317652324</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.275275719796919</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.34401074869753</v>
+        <v>-21.35178915862279</v>
       </c>
       <c r="F43" t="n">
-        <v>5.393019339128141</v>
+        <v>5.381901737512777</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.962865228357368</v>
+        <v>-4.959711818928207</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.526388658431197</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.53266050310553</v>
+        <v>-20.54041446799645</v>
       </c>
       <c r="F44" t="n">
-        <v>5.453662580305354</v>
+        <v>5.442241860264241</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.107193600075564</v>
+        <v>-5.103385063726237</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.703925929578069</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.86051983904206</v>
+        <v>-19.868493809242</v>
       </c>
       <c r="F45" t="n">
-        <v>5.472284807461434</v>
+        <v>5.46034096368556</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.222143929530469</v>
+        <v>-5.218491841400883</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.816113463344205</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.27670886204314</v>
+        <v>-19.28518151094351</v>
       </c>
       <c r="F46" t="n">
-        <v>5.560580271477917</v>
+        <v>5.548303975235094</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.127434088504592</v>
+        <v>-5.122574415678878</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.871408407763359</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.6700711119826</v>
+        <v>-18.67779085382546</v>
       </c>
       <c r="F47" t="n">
-        <v>5.619018570558152</v>
+        <v>5.606624938150523</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.376543655394509</v>
+        <v>-5.370603512051208</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.885358652430297</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.89478218104096</v>
+        <v>-17.90296637853618</v>
       </c>
       <c r="F48" t="n">
-        <v>5.616251392671478</v>
+        <v>5.603774647147111</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.432630342171757</v>
+        <v>-5.426846647048197</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.878357667468889</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.26863240457456</v>
+        <v>-17.27704149638566</v>
       </c>
       <c r="F49" t="n">
-        <v>5.41523987533827</v>
+        <v>5.401853774536657</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.55409771778026</v>
+        <v>-5.546773985493621</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.866096993804928</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.73452307138471</v>
+        <v>-16.74231614833057</v>
       </c>
       <c r="F50" t="n">
-        <v>5.487514063851874</v>
+        <v>5.474352857366139</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.904776402330334</v>
+        <v>-5.89679754312353</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.872233846282437</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.23643594079028</v>
+        <v>-16.24450280212069</v>
       </c>
       <c r="F51" t="n">
-        <v>5.455882189422934</v>
+        <v>5.441928963824759</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.973589173982162</v>
+        <v>-5.9664463349496</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.911433830698958</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.47788696936096</v>
+        <v>-15.48638895230252</v>
       </c>
       <c r="F52" t="n">
-        <v>5.48592024761326</v>
+        <v>5.472143026262293</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.323910961030953</v>
+        <v>-6.316210775215562</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.996520610606038</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.13219507181514</v>
+        <v>-15.13987081259619</v>
       </c>
       <c r="F53" t="n">
-        <v>5.637288789219813</v>
+        <v>5.62337956468344</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.715007065349814</v>
+        <v>-6.706593084531854</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.138685046897872</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.54676583354327</v>
+        <v>-14.55420201298785</v>
       </c>
       <c r="F54" t="n">
-        <v>5.627784559870531</v>
+        <v>5.612838865878372</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.915187451515647</v>
+        <v>-6.90741881960412</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.337550172905737</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.13127358495851</v>
+        <v>-14.13809863854472</v>
       </c>
       <c r="F55" t="n">
-        <v>5.516926329163234</v>
+        <v>5.502190862466352</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.377183933418509</v>
+        <v>-7.368036601570511</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.595146487768357</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.764153170315</v>
+        <v>-13.77101733595614</v>
       </c>
       <c r="F56" t="n">
-        <v>5.261236159030449</v>
+        <v>5.246926035930989</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.590887312578229</v>
+        <v>-7.580938183604056</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.90282073836924</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.33193562923851</v>
+        <v>-13.33844778638524</v>
       </c>
       <c r="F57" t="n">
-        <v>5.291983123216477</v>
+        <v>5.277702334158219</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.054404275616701</v>
+        <v>-8.044660484930938</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.248607652256454</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.98943625317679</v>
+        <v>-12.99479949370979</v>
       </c>
       <c r="F58" t="n">
-        <v>5.198573758017201</v>
+        <v>5.18418541080787</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.437316182440346</v>
+        <v>-8.42794395627647</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.622758684281134</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.68879166490272</v>
+        <v>-12.6943064646486</v>
       </c>
       <c r="F59" t="n">
-        <v>5.170403300450037</v>
+        <v>5.15624473656345</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.430779580259282</v>
+        <v>-8.421671360466219</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.00717402722871</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.13167955440403</v>
+        <v>-12.13685701267609</v>
       </c>
       <c r="F60" t="n">
-        <v>5.159940825754838</v>
+        <v>5.145581812586709</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.703674165556739</v>
+        <v>-8.694561056756809</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.389715769601631</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.88746877239476</v>
+        <v>-11.89339424871746</v>
       </c>
       <c r="F61" t="n">
-        <v>4.984797043754477</v>
+        <v>4.971073601479047</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.971669965973549</v>
+        <v>-8.962302628816539</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.758366969343311</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.66733146019818</v>
+        <v>-11.67325693652088</v>
       </c>
       <c r="F62" t="n">
-        <v>4.92032571020047</v>
+        <v>4.906352928574827</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.083310437779552</v>
+        <v>-9.073067968393365</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.098255008788644</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.60936739478403</v>
+        <v>-11.61461329915223</v>
       </c>
       <c r="F63" t="n">
-        <v>4.842282493583906</v>
+        <v>4.828451493157404</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.179995437579663</v>
+        <v>-9.169215177438115</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.406154373493708</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.61251102619946</v>
+        <v>-11.61817249615135</v>
       </c>
       <c r="F64" t="n">
-        <v>4.77815827951745</v>
+        <v>4.764219720939876</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.314301345220683</v>
+        <v>-9.303413526928063</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.672697301822154</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.59321411609575</v>
+        <v>-11.59788800666052</v>
       </c>
       <c r="F65" t="n">
-        <v>4.870252501869527</v>
+        <v>4.856093937982942</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.355887237630661</v>
+        <v>-9.344774525022164</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.894423707676202</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.48695155184335</v>
+        <v>-11.49160099737379</v>
       </c>
       <c r="F66" t="n">
-        <v>4.714967865762574</v>
+        <v>4.701019529171266</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.50788157211618</v>
+        <v>-9.496631967315409</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.070809627692988</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.71951183048876</v>
+        <v>-11.72377015546985</v>
       </c>
       <c r="F67" t="n">
-        <v>4.628021767641359</v>
+        <v>4.614430328551335</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.684506723197217</v>
+        <v>-9.672865997847092</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.197522655762807</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.52303731152805</v>
+        <v>-11.52747164075634</v>
       </c>
       <c r="F68" t="n">
-        <v>4.608695523496444</v>
+        <v>4.595084528378953</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.828365750256189</v>
+        <v>-9.817287260695759</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.28007799872489</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.69829354068635</v>
+        <v>-11.70169140045886</v>
       </c>
       <c r="F69" t="n">
-        <v>4.634890822289375</v>
+        <v>4.620145577578759</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.864813296449039</v>
+        <v>-9.853470800517798</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.316750181073914</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.75407710903785</v>
+        <v>-11.75776830922237</v>
       </c>
       <c r="F70" t="n">
-        <v>4.749860707771746</v>
+        <v>4.735203465184735</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.850151164855161</v>
+        <v>-9.840182479853523</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.311660121145152</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.06025605308526</v>
+        <v>-12.06432859580541</v>
       </c>
       <c r="F71" t="n">
-        <v>4.563804662444431</v>
+        <v>4.549250089001625</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.716852392628725</v>
+        <v>-9.706580589201337</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.268262966542398</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.16978447392476</v>
+        <v>-12.1751134914097</v>
       </c>
       <c r="F72" t="n">
-        <v>4.369926206130052</v>
+        <v>4.35557208196879</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.697100804886389</v>
+        <v>-9.686032093339694</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.18587456686047</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.32187658854762</v>
+        <v>-12.32647225500252</v>
       </c>
       <c r="F73" t="n">
-        <v>4.442200394643655</v>
+        <v>4.427083585411155</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.567351451645333</v>
+        <v>-9.556458744345846</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.068861976918081</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.5670309488822</v>
+        <v>-12.57116215968474</v>
       </c>
       <c r="F74" t="n">
-        <v>4.39011780449041</v>
+        <v>4.374864103065636</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.553212443786215</v>
+        <v>-9.541767278710768</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.914157830729172</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.09571837345665</v>
+        <v>-13.09976647114246</v>
       </c>
       <c r="F75" t="n">
-        <v>4.442185727623055</v>
+        <v>4.427596931132181</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.55789611236472</v>
+        <v>-9.546260276021462</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.723782824825753</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.17534073929123</v>
+        <v>-13.17961862029978</v>
       </c>
       <c r="F76" t="n">
-        <v>4.387668412050086</v>
+        <v>4.372649382954924</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.46213024585559</v>
+        <v>-9.451413542803312</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.498744694342381</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.6808836053577</v>
+        <v>-13.68415923995853</v>
       </c>
       <c r="F77" t="n">
-        <v>4.43908609726943</v>
+        <v>4.424115958242937</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.271419865990971</v>
+        <v>-9.260400044512945</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.236134855966601</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.97791521755712</v>
+        <v>-13.98126418726095</v>
       </c>
       <c r="F78" t="n">
-        <v>4.412382341762341</v>
+        <v>4.397245976502372</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.147229313557599</v>
+        <v>-9.136517499512188</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.940646984539273</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.18997589040955</v>
+        <v>-14.19486978628334</v>
       </c>
       <c r="F79" t="n">
-        <v>4.528051355226682</v>
+        <v>4.512181638936676</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.051091882526583</v>
+        <v>-9.039646717451134</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.609850971281177</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.90990170759025</v>
+        <v>-14.91425781270867</v>
       </c>
       <c r="F80" t="n">
-        <v>4.422483029949388</v>
+        <v>4.40598263177355</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.076539163268874</v>
+        <v>-9.064204198943649</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.247651674503723</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.50770013323541</v>
+        <v>-15.51216868551177</v>
       </c>
       <c r="F81" t="n">
-        <v>4.474179388560146</v>
+        <v>4.457502986137099</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.739940818495514</v>
+        <v>-8.727703634307627</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.858945124362621</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.32838349293635</v>
+        <v>-16.33129245202216</v>
       </c>
       <c r="F82" t="n">
-        <v>4.493769639075874</v>
+        <v>4.476775451206478</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.713662406585847</v>
+        <v>-8.70085320859453</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.442942552787031</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.07470994719839</v>
+        <v>-17.07841092539664</v>
       </c>
       <c r="F83" t="n">
-        <v>4.536646229298719</v>
+        <v>4.518346676595856</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.744541373957281</v>
+        <v>-8.73118460719687</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.010957630188684</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.22648174093368</v>
+        <v>-18.22883335323666</v>
       </c>
       <c r="F84" t="n">
-        <v>4.550995464453114</v>
+        <v>4.532823025928791</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.598379624663993</v>
+        <v>-8.585433534480401</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.566950033768738</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.32337932159471</v>
+        <v>-19.32590693814491</v>
       </c>
       <c r="F85" t="n">
-        <v>4.75563951388844</v>
+        <v>4.737755526769265</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.502603980141128</v>
+        <v>-8.489662778964405</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.120447776418453</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.47804051838835</v>
+        <v>-20.48050946685614</v>
       </c>
       <c r="F86" t="n">
-        <v>4.772941709190452</v>
+        <v>4.753581241997469</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.173031138235524</v>
+        <v>-8.16078906504077</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.684598909055501</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.41462267487638</v>
+        <v>-21.41684717300083</v>
       </c>
       <c r="F87" t="n">
-        <v>4.85430456146965</v>
+        <v>4.834645864857785</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.009904535114041</v>
+        <v>-7.997784687090959</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.266759645042295</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.85182935652277</v>
+        <v>-22.85528099537081</v>
       </c>
       <c r="F88" t="n">
-        <v>4.926661863099992</v>
+        <v>4.907135169673533</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.027583183944806</v>
+        <v>-8.015805566402408</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.884336093578853</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.38914823178297</v>
+        <v>-24.39197896675892</v>
       </c>
       <c r="F89" t="n">
-        <v>4.735281689294606</v>
+        <v>4.71573543984068</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.555872245397383</v>
+        <v>-7.543537281072157</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.55188242754716</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.9439746406336</v>
+        <v>-25.94652181321126</v>
       </c>
       <c r="F90" t="n">
-        <v>4.958968420476565</v>
+        <v>4.939427060029507</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.632693210297218</v>
+        <v>-7.621365381386576</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.283114037982731</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.84088241545883</v>
+        <v>-27.8422244478438</v>
       </c>
       <c r="F91" t="n">
-        <v>4.837809052300679</v>
+        <v>4.818580588293103</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.31609090360954</v>
+        <v>-7.304523513362419</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.096126327851495</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.58693499439853</v>
+        <v>-29.58740922806463</v>
       </c>
       <c r="F92" t="n">
-        <v>4.863085217802629</v>
+        <v>4.843573191396772</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.328210751632622</v>
+        <v>-7.316066458575206</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.003390427839745</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.29443530968918</v>
+        <v>-31.29447442174412</v>
       </c>
       <c r="F93" t="n">
-        <v>4.931897989454457</v>
+        <v>4.912747749556751</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.306987572823344</v>
+        <v>-7.295879749221713</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.014482591967663</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.49907917724894</v>
+        <v>-33.49957785594937</v>
       </c>
       <c r="F94" t="n">
-        <v>4.807321205478598</v>
+        <v>4.789539887503628</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.988356328285896</v>
+        <v>-6.977644514240485</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.13777661015765</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.70198011386064</v>
+        <v>-35.70148876867052</v>
       </c>
       <c r="F95" t="n">
-        <v>4.762924134120143</v>
+        <v>4.745626827824998</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.736802257962522</v>
+        <v>-6.727469143853581</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.374434935439258</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.90141474460371</v>
+        <v>-37.90155163679598</v>
       </c>
       <c r="F96" t="n">
-        <v>4.739437345131484</v>
+        <v>4.722457824282688</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.470952731560287</v>
+        <v>-6.46372189040412</v>
       </c>
     </row>
     <row r="97">
@@ -2667,10 +2667,10 @@
         <v>-40.38892188246256</v>
       </c>
       <c r="F97" t="n">
-        <v>4.406725760817321</v>
+        <v>4.389760906989125</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.397387845233818</v>
+        <v>-6.390895244114555</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.149840050325413</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.49507670668832</v>
+        <v>-42.49428468757588</v>
       </c>
       <c r="F98" t="n">
-        <v>4.418410487229248</v>
+        <v>4.402628773062846</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.288538996348824</v>
+        <v>-6.283659767495642</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.647718869003987</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.99869312217366</v>
+        <v>-44.99665929531703</v>
       </c>
       <c r="F99" t="n">
-        <v>3.944699944873257</v>
+        <v>3.929749361874232</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.853661835536739</v>
+        <v>-5.850161306620028</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.217523977242433</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.59043510868687</v>
+        <v>-47.58656423749999</v>
       </c>
       <c r="F100" t="n">
-        <v>3.6600277420334</v>
+        <v>3.647008316746806</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.826459401329224</v>
+        <v>-5.825383819818503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.786771150667604</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.73415217267113</v>
+        <v>-49.73055264136536</v>
       </c>
       <c r="F101" t="n">
-        <v>3.666564344214466</v>
+        <v>3.65462538944546</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.870416462069657</v>
+        <v>-5.8699666734379</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.415939171026498</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.88755558151048</v>
+        <v>-51.88396705047015</v>
       </c>
       <c r="F102" t="n">
-        <v>3.319630638924447</v>
+        <v>3.307721018196643</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.807030488040104</v>
+        <v>-5.808707417395456</v>
       </c>
     </row>
   </sheetData>
